--- a/MachineBookExtract/Chapters.xlsx
+++ b/MachineBookExtract/Chapters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pa-wo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pa-wo\Desktop\Studia\Magisterka\MachineBookExtract\MachineBookExtract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F553467-DE39-4556-9FBD-ED418B3ED9B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42DCA51-5C00-4194-AE68-CA0E41BFDA13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{532C2578-83BC-42C4-A4D5-57CEF4118DCA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{532C2578-83BC-42C4-A4D5-57CEF4118DCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Alice" sheetId="1" r:id="rId1"/>
@@ -2018,11 +2018,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E871F720-5D0A-4597-B64B-307D45DC49FB}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="22.44140625" customWidth="1"/>
+    <col min="13" max="13" width="30.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -8156,6 +8163,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="38.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -10324,11 +10334,12 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="12" max="12" width="56.6640625" customWidth="1"/>
     <col min="13" max="13" width="79.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11305,8 +11316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0DCE26-CBC5-49F4-9099-439511B69D81}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
